--- a/07 Heroes.xlsx
+++ b/07 Heroes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35272A4-E99A-8F48-870D-B8822831AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847E2F2-9AAC-4AE2-B2DC-097DC53DDF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" tabRatio="604" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="9220" yWindow="2790" windowWidth="36340" windowHeight="18950" tabRatio="604" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Four vol.1" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>Da</t>
   </si>
@@ -339,9 +339,6 @@
     <t>SEC da #280 a #372</t>
   </si>
   <si>
-    <t>SEC da #2 a #372</t>
-  </si>
-  <si>
     <t>SEC da #228 a #372</t>
   </si>
   <si>
@@ -844,9 +841,6 @@
     <t>SEC  da #275 a #</t>
   </si>
   <si>
-    <t>SEC  da #82 a #373</t>
-  </si>
-  <si>
     <t>F4 da #5 a  #13</t>
   </si>
   <si>
@@ -860,13 +854,25 @@
   </si>
   <si>
     <t>F4 da #20 a #53</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men #86</t>
+  </si>
+  <si>
+    <t>Onslaught Fase 4</t>
+  </si>
+  <si>
+    <t>SEC da #2 a #385</t>
+  </si>
+  <si>
+    <t>SEC  da #82 a #386</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +989,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF403F3F"/>
+      <name val="Open Sans Condensed"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1005,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,10 +1029,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1037,7 +1051,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1353,21 +1367,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="69.83203125" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="40.08984375" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22">
+    <row r="1" spans="1:4" ht="21.5">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,26 +1446,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
-      <c r="B15" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B14" s="2">
         <v>229</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C14" s="2">
         <v>281</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.5">
+      <c r="B18">
+        <v>415</v>
+      </c>
+      <c r="C18">
+        <v>415</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1464,72 +1492,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8C6E2A-654E-EA42-BB61-1B43851FA905}">
-  <dimension ref="A20:E74"/>
+  <dimension ref="A20:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="1:5" ht="43">
+    <row r="20" spans="1:5" ht="42.5">
       <c r="A20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.5">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5">
+      <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17">
-      <c r="A24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B33" s="2">
         <v>1</v>
       </c>
@@ -1545,76 +1573,76 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42.5">
+      <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43">
-      <c r="A36" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="23">
+    <row r="37" spans="1:5" ht="22.5">
       <c r="A37" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5">
+      <c r="E38" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17">
-      <c r="E38" s="10" t="s">
+    <row r="39" spans="1:5" ht="16.5">
+      <c r="A39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17">
-      <c r="A39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5">
+      <c r="A41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17">
-      <c r="A41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="10" t="s">
+    <row r="42" spans="1:5" ht="16.5">
+      <c r="A42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
+      <c r="A43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17">
-      <c r="A42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="17">
-      <c r="A43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="49" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B49" s="2">
         <v>59</v>
       </c>
@@ -1630,64 +1658,64 @@
         <v>101</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="42.5">
+      <c r="A53" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="43">
-      <c r="A53" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="23">
+    <row r="54" spans="1:4" ht="22.5">
       <c r="A54" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="16.5">
       <c r="A57" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5">
+      <c r="A58" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17">
-      <c r="A58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B65" s="2" t="s">
         <v>0</v>
       </c>
@@ -1695,71 +1723,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="66" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B66" s="2">
         <v>102</v>
       </c>
       <c r="C66" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B67" s="2">
+        <v>258</v>
+      </c>
+      <c r="C67" s="2">
+        <v>261</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B68" s="11">
+        <v>262</v>
+      </c>
+      <c r="C68" s="11">
+        <v>262</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="2" customFormat="1" ht="22">
-      <c r="B68" s="2">
-        <v>254</v>
-      </c>
-      <c r="C68" s="2">
-        <v>261</v>
-      </c>
-      <c r="D68" s="2" t="s">
+    <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B69" s="2">
+        <v>263</v>
+      </c>
+      <c r="C69" s="2">
+        <v>266</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="11" customFormat="1" ht="22">
-      <c r="B69" s="11">
-        <v>262</v>
-      </c>
-      <c r="C69" s="11">
-        <v>262</v>
-      </c>
-      <c r="D69" s="11" t="s">
+    <row r="70" spans="2:4" s="2" customFormat="1" ht="21"/>
+    <row r="71" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B71" s="2">
+        <v>312</v>
+      </c>
+      <c r="C71" s="2">
+        <v>312</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="2" customFormat="1" ht="22">
-      <c r="B70" s="2">
-        <v>263</v>
-      </c>
-      <c r="C70" s="2">
-        <v>266</v>
-      </c>
-      <c r="D70" s="2" t="s">
+    <row r="73" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B73" s="2">
+        <v>314</v>
+      </c>
+      <c r="C73" s="2">
+        <v>339</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" s="2" customFormat="1" ht="22"/>
-    <row r="72" spans="2:4" s="2" customFormat="1" ht="22">
-      <c r="B72" s="2">
-        <v>312</v>
-      </c>
-      <c r="C72" s="2">
-        <v>312</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" s="2" customFormat="1" ht="22">
-      <c r="B74" s="2">
-        <v>314</v>
-      </c>
-      <c r="C74" s="2">
-        <v>339</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1782,60 +1810,60 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="43">
+    <row r="3" spans="1:5" ht="42.5">
       <c r="A3" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -1851,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -1865,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1873,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1892,12 +1920,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="22">
+    <row r="3" spans="1:6" ht="21.5">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1950,7 +1978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="22">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="22">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1969,7 +1997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2">
         <v>7</v>
       </c>
@@ -1980,7 +2008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1991,7 +2019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1999,7 +2027,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2018,13 +2046,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="22">
+    <row r="2" spans="1:4" ht="21.5">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -2094,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2113,71 +2141,71 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="43">
+    <row r="4" spans="1:5" ht="42.5">
       <c r="A4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -2193,10 +2221,10 @@
         <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>175</v>
       </c>
@@ -2204,10 +2232,10 @@
         <v>191</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B20" s="2">
         <v>195</v>
       </c>
@@ -2215,10 +2243,10 @@
         <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B23" s="2">
         <v>219</v>
       </c>
@@ -2226,10 +2254,10 @@
         <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B25" s="2">
         <v>225</v>
       </c>
@@ -2237,10 +2265,10 @@
         <v>233</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B27" s="2">
         <v>236</v>
       </c>
@@ -2248,10 +2276,10 @@
         <v>236</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B29" s="2">
         <v>238</v>
       </c>
@@ -2259,10 +2287,10 @@
         <v>245</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B31" s="2">
         <v>247</v>
       </c>
@@ -2270,7 +2298,7 @@
         <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2289,60 +2317,60 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="43">
+    <row r="3" spans="1:4" ht="42.5">
       <c r="A3" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -2358,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -2372,7 +2400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -2380,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/07 Heroes.xlsx
+++ b/07 Heroes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847E2F2-9AAC-4AE2-B2DC-097DC53DDF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31C63B-412D-43C9-BE16-8460AA986EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="2790" windowWidth="36340" windowHeight="18950" tabRatio="604" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="9630" yWindow="2380" windowWidth="38620" windowHeight="19040" tabRatio="604" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Four vol.1" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
   <si>
     <t>Da</t>
   </si>
@@ -501,9 +501,6 @@
     <t>SEC da #281 a #281</t>
   </si>
   <si>
-    <t>F4 Star Comics da #1</t>
-  </si>
-  <si>
     <t>F4 Star Comics da #9</t>
   </si>
   <si>
@@ -866,6 +863,15 @@
   </si>
   <si>
     <t>SEC  da #82 a #386</t>
+  </si>
+  <si>
+    <t>F4 Star Comics #56</t>
+  </si>
+  <si>
+    <t>F4 Star Comics da #1 a #55</t>
+  </si>
+  <si>
+    <t>F4 Star Comics da #57 a #138</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1451,21 +1457,43 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B14" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C14" s="2">
         <v>281</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" ht="21">
+      <c r="B15" s="11">
+        <v>282</v>
+      </c>
+      <c r="C15" s="11">
+        <v>282</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B16" s="2">
+        <v>283</v>
+      </c>
+      <c r="C16" s="2">
+        <v>395</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.5">
@@ -1476,10 +1504,10 @@
         <v>415</v>
       </c>
       <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8C6E2A-654E-EA42-BB61-1B43851FA905}">
   <dimension ref="A20:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
       <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
@@ -1505,7 +1533,7 @@
   <sheetData>
     <row r="20" spans="1:5" ht="42.5">
       <c r="A20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22.5">
@@ -1515,26 +1543,26 @@
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1549,7 +1577,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1573,12 +1601,12 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="42.5">
       <c r="A36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="22.5">
@@ -1586,36 +1614,36 @@
         <v>5</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="E38" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5">
@@ -1629,12 +1657,12 @@
         <v>37</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1658,12 +1686,12 @@
         <v>101</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="42.5">
       <c r="A53" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="22.5">
@@ -1673,26 +1701,26 @@
     </row>
     <row r="57" spans="1:4" ht="16.5">
       <c r="A57" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
       <c r="A58" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1707,7 +1735,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1731,7 +1759,7 @@
         <v>257</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -1742,7 +1770,7 @@
         <v>261</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="11" customFormat="1" ht="21">
@@ -1753,7 +1781,7 @@
         <v>262</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -1764,7 +1792,7 @@
         <v>266</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="2" customFormat="1" ht="21"/>
@@ -1776,7 +1804,7 @@
         <v>312</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="2" customFormat="1" ht="21">
@@ -1787,7 +1815,7 @@
         <v>339</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1845,7 @@
   <sheetData>
     <row r="3" spans="1:5" ht="42.5">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5">
@@ -1827,20 +1855,20 @@
     </row>
     <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1855,12 +1883,12 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="21">
@@ -1879,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
@@ -1901,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2055,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2260,7 @@
         <v>191</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2243,7 +2271,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2254,7 +2282,7 @@
         <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2265,7 +2293,7 @@
         <v>233</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2276,7 +2304,7 @@
         <v>236</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2287,7 +2315,7 @@
         <v>245</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2298,7 +2326,7 @@
         <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/07 Heroes.xlsx
+++ b/07 Heroes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31C63B-412D-43C9-BE16-8460AA986EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF5A7E-A97E-4656-A386-D3800BA5B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="2380" windowWidth="38620" windowHeight="19040" tabRatio="604" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="50" yWindow="1220" windowWidth="38580" windowHeight="19040" tabRatio="604" activeTab="7" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Four vol.1" sheetId="15" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Giant Size F4 v.1" sheetId="21" r:id="rId5"/>
     <sheet name="Devil v.1" sheetId="22" r:id="rId6"/>
     <sheet name="Devil v.1 Annual" sheetId="23" r:id="rId7"/>
+    <sheet name="Silver Surfer" sheetId="26" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>Da</t>
   </si>
@@ -872,6 +873,72 @@
   </si>
   <si>
     <t>F4 Star Comics da #57 a #138</t>
+  </si>
+  <si>
+    <t>Silver Surfer vol 3</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1987</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-146</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 148</t>
+    </r>
+  </si>
+  <si>
+    <t>Epic Collection USA</t>
+  </si>
+  <si>
+    <t>Silver Surfer Play Press da #1 a #37</t>
+  </si>
+  <si>
+    <t>Silver Surfer Play Press da #43 a #53</t>
+  </si>
+  <si>
+    <t>MCP #14 (Marvel Italia)</t>
+  </si>
+  <si>
+    <t>F4 #120 #121 (Marvel Italia)</t>
+  </si>
+  <si>
+    <t>Silver Surfer da #0 (Marvel Italia) a #2</t>
+  </si>
+  <si>
+    <t>Silver Surfer da #3 a #4 (Marvel Italia)</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2165,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBE190F-B139-6944-A534-1BB60AAF8A18}">
   <dimension ref="A4:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -2445,4 +2512,143 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B377D923-BC24-44FB-A99F-393729C2D6C6}">
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="4" max="4" width="45.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="21.5">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" ht="21">
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B13" s="2">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" ht="21">
+      <c r="B14" s="11">
+        <v>51</v>
+      </c>
+      <c r="C14" s="11">
+        <v>65</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B15" s="2">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B16" s="2">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B17" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B18" s="11">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11">
+        <v>81</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>